--- a/Расписание 10Т.xlsx
+++ b/Расписание 10Т.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b28425dc8058990/Рабочий стол/проект/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_admin\PycharmProjects\telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{43DF2562-44A5-433E-A1C4-1C5DC5BE8D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A12C8C8-C6C4-4212-ACFB-2AE3A5804999}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3960E-8528-4A88-9FC0-5B2DC6114567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2DE1C07A-AAB9-413C-82FB-B4D042C3AC54}"/>
   </bookViews>
@@ -119,61 +119,61 @@
     <t>Среда</t>
   </si>
   <si>
-    <t>Замены</t>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Введение в IT-специальность</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Алгебра и начала математического анализа</t>
+  </si>
+  <si>
+    <t>Горбунова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Вероятность и статистика</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Практикум по математике</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Практикум по решению физических задач</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Основы безопасности жизнедеятельности</t>
+  </si>
+  <si>
+    <t>Стрижакова Виктория Леонидовна</t>
+  </si>
+  <si>
+    <t>Теряев Александр Иванович</t>
+  </si>
+  <si>
+    <t>Замена</t>
+  </si>
+  <si>
+    <t>Учитель на замене</t>
   </si>
   <si>
     <t>нет</t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t>Введение в IT-специальность</t>
-  </si>
-  <si>
-    <t>Геометрия</t>
-  </si>
-  <si>
-    <t>Алгебра и начала математического анализа</t>
-  </si>
-  <si>
-    <t>Горбунова Наталья Сергеевна</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Вероятность и статистика</t>
-  </si>
-  <si>
-    <t>Химия</t>
-  </si>
-  <si>
-    <t>Практикум по математике</t>
-  </si>
-  <si>
-    <t>Литература</t>
-  </si>
-  <si>
-    <t>Практикум по решению физических задач</t>
-  </si>
-  <si>
-    <t>География</t>
-  </si>
-  <si>
-    <t>Основы безопасности жизнедеятельности</t>
-  </si>
-  <si>
-    <t>Стрижакова Виктория Леонидовна</t>
-  </si>
-  <si>
-    <t>Теряев Александр Иванович</t>
-  </si>
-  <si>
-    <t>Учитель на замене</t>
   </si>
 </sst>
 </file>
@@ -213,12 +213,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -239,9 +241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18A23D0-A6CE-419A-98C3-623D0050E7C1}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -602,11 +604,11 @@
       <c r="F3" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -616,7 +618,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -628,11 +630,11 @@
       <c r="F4" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -654,11 +656,11 @@
       <c r="F5" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -680,11 +682,11 @@
       <c r="F6" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -706,11 +708,11 @@
       <c r="F7" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -718,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -732,11 +734,11 @@
       <c r="F8" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -758,11 +760,11 @@
       <c r="F9" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,11 +786,11 @@
       <c r="F10" s="1">
         <v>0.6875</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -815,11 +817,11 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -841,11 +843,11 @@
       <c r="F13" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>28</v>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -867,11 +869,11 @@
       <c r="F14" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>28</v>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -893,11 +895,11 @@
       <c r="F15" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>28</v>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -919,11 +921,11 @@
       <c r="F16" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>28</v>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -945,11 +947,11 @@
       <c r="F17" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>28</v>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -971,11 +973,11 @@
       <c r="F18" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>28</v>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -997,11 +999,11 @@
       <c r="F19" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>28</v>
+      <c r="G19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1028,11 +1030,11 @@
       <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
+      <c r="G21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1040,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1">
         <v>0.35416666666666669</v>
@@ -1054,11 +1056,11 @@
       <c r="F22" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>28</v>
+      <c r="G22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1066,13 +1068,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1">
         <v>0.3923611111111111</v>
@@ -1080,11 +1082,11 @@
       <c r="F23" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>28</v>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1106,11 +1108,11 @@
       <c r="F24" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>28</v>
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1132,11 +1134,11 @@
       <c r="F25" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>28</v>
+      <c r="G25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1144,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -1158,11 +1160,11 @@
       <c r="F26" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>28</v>
+      <c r="G26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1170,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>17</v>
@@ -1184,11 +1186,11 @@
       <c r="F27" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>28</v>
+      <c r="G27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -1210,16 +1212,16 @@
       <c r="F28" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>28</v>
+      <c r="G28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1241,11 +1243,11 @@
       <c r="F30" t="s">
         <v>4</v>
       </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1253,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>17</v>
@@ -1267,11 +1269,11 @@
       <c r="F31" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>28</v>
+      <c r="G31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1285,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="1">
         <v>0.3923611111111111</v>
@@ -1293,11 +1295,11 @@
       <c r="F32" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>28</v>
+      <c r="G32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1305,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1319,11 +1321,11 @@
       <c r="F33" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>28</v>
+      <c r="G33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1331,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -1345,11 +1347,11 @@
       <c r="F34" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>28</v>
+      <c r="G34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1357,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -1371,11 +1373,11 @@
       <c r="F35" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>28</v>
+      <c r="G35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1383,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -1397,11 +1399,11 @@
       <c r="F36" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>28</v>
+      <c r="G36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1409,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1">
         <v>0.60416666666666663</v>
@@ -1423,16 +1425,16 @@
       <c r="F37" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>28</v>
+      <c r="G37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1454,11 +1456,11 @@
       <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>45</v>
+      <c r="G39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1466,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1480,11 +1482,11 @@
       <c r="F40" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>28</v>
+      <c r="G40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1492,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>16</v>
@@ -1506,11 +1508,11 @@
       <c r="F41" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>28</v>
+      <c r="G41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1518,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -1532,11 +1534,11 @@
       <c r="F42" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>28</v>
+      <c r="G42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1544,13 +1546,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E43" s="1">
         <v>0.47569444444444442</v>
@@ -1558,11 +1560,11 @@
       <c r="F43" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>28</v>
+      <c r="G43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1570,13 +1572,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1">
         <v>0.51388888888888895</v>
@@ -1584,11 +1586,11 @@
       <c r="F44" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>28</v>
+      <c r="G44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1596,13 +1598,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1">
         <v>0.56597222222222221</v>
@@ -1610,11 +1612,11 @@
       <c r="F45" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>28</v>
+      <c r="G45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,13 +1624,13 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46" s="1">
         <v>0.60416666666666663</v>
@@ -1636,11 +1638,11 @@
       <c r="F46" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>28</v>
+      <c r="G46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
